--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>1-)</t>
   </si>
@@ -51,7 +51,10 @@
     <t>(o IP tem uma quantidade excessiva de octetos)</t>
   </si>
   <si>
-    <t>(o)</t>
+    <t>(o IP nçao tem a quantidade necessária de octetos)</t>
+  </si>
+  <si>
+    <t>(O IP tem a quantidade certa de octetos, é classe A)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+      <selection activeCell="G9" sqref="G9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +425,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -503,6 +508,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -514,22 +526,29 @@
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>1-)</t>
   </si>
@@ -55,6 +55,72 @@
   </si>
   <si>
     <t>(O IP tem a quantidade certa de octetos, é classe A)</t>
+  </si>
+  <si>
+    <t>222.222.222.22</t>
+  </si>
+  <si>
+    <t>(O IP tem a quantidade coerente de octetos, sendo uma classe C)</t>
+  </si>
+  <si>
+    <t>Não, pois o MAC Address é o seu identificador, contendo um único por host.</t>
+  </si>
+  <si>
+    <t>4-)</t>
+  </si>
+  <si>
+    <t>As classes de IP é aquilo que vai determinar a quantidade de hosts e redes naquele número de IP.</t>
+  </si>
+  <si>
+    <t>5-)</t>
+  </si>
+  <si>
+    <t>10.9.0.44</t>
+  </si>
+  <si>
+    <t>200.217.235.80</t>
+  </si>
+  <si>
+    <t>127.255.0.128</t>
+  </si>
+  <si>
+    <t>172.30.115.254</t>
+  </si>
+  <si>
+    <t>8.15.32.1</t>
+  </si>
+  <si>
+    <t>205.208.33.1</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>192.169.0.33</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>6-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> da rede e a quantidade de host presentes na rede qual </t>
+  </si>
+  <si>
+    <t>A mascará de sub-rede vai falar o intervalo (o primeiro e o último), para saber a rede, qual o host</t>
+  </si>
+  <si>
+    <t>7-)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -90,13 +156,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:K9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,145 +484,357 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="b">
+      <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="b">
+      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="b">
+      <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="b">
+      <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="28">
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G8:M8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>1-)</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Hosts por sub-redes:</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,7 +178,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,16 +506,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
@@ -505,155 +523,155 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="b">
+      <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="b">
+      <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="b">
+      <c r="E8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="b">
+      <c r="E9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,10 +683,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
@@ -680,10 +698,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
@@ -695,10 +713,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -710,10 +728,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
@@ -725,10 +743,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,10 +758,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -755,10 +773,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
@@ -773,57 +791,107 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7">
+        <v>255255255192</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>255</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>192</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="7">
+        <v>255255255252</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="31">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B6:C6"/>
@@ -831,10 +899,23 @@
     <mergeCell ref="G7:M7"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/LISTA DE EXERCÍCIO.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>1-)</t>
   </si>
   <si>
-    <t>Não, pois o IP é como uma identidade numérica para um dispositívo eletronico</t>
-  </si>
-  <si>
     <t>2-)</t>
   </si>
   <si>
@@ -130,16 +127,70 @@
   </si>
   <si>
     <t>b)</t>
+  </si>
+  <si>
+    <t>Podem ter 64.332.574 hosts nessa sub-rede</t>
+  </si>
+  <si>
+    <t>Podem ter 2 hosts nessa sub-rede</t>
+  </si>
+  <si>
+    <t>Não, pois o IP é como uma identidade numérica para um dispositívo eletrônico.</t>
+  </si>
+  <si>
+    <t>NOME:</t>
+  </si>
+  <si>
+    <t>FELIPE DA COSTA ROBINSON</t>
+  </si>
+  <si>
+    <t>RA:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -161,33 +212,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,434 +767,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="42">
+        <v>24464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C29" s="34">
+        <v>255255255192</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="33">
+        <v>255</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="18">
+        <v>11111111</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="33">
+        <v>192</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18">
+        <v>11000000</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="7">
-        <v>255255255192</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="C35" s="34">
+        <v>255255255252</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="18">
         <v>255</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="D37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="14">
         <v>11111111</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
-        <v>192</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="7">
-        <v>255255255252</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="18">
+        <v>252</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14">
+        <v>11111100</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
